--- a/team_specific_matrix/Marist_A.xlsx
+++ b/team_specific_matrix/Marist_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2049689440993789</v>
+        <v>0.2259615384615385</v>
       </c>
       <c r="C2">
-        <v>0.5217391304347826</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01863354037267081</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1863354037267081</v>
+        <v>0.1778846153846154</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06832298136645963</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03409090909090909</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04545454545454546</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7272727272727273</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1931818181818182</v>
+        <v>0.2264150943396226</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7272727272727273</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2727272727272727</v>
+        <v>0.2692307692307692</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02298850574712644</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005747126436781609</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05747126436781609</v>
+        <v>0.05472636815920398</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2413793103448276</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1609195402298851</v>
+        <v>0.1741293532338309</v>
       </c>
       <c r="R6">
-        <v>0.103448275862069</v>
+        <v>0.0945273631840796</v>
       </c>
       <c r="S6">
-        <v>0.4080459770114943</v>
+        <v>0.3880597014925373</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.112</v>
+        <v>0.1059602649006623</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.008</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.064</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.112</v>
+        <v>0.09933774834437085</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.024</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="R7">
-        <v>0.056</v>
+        <v>0.0728476821192053</v>
       </c>
       <c r="S7">
-        <v>0.424</v>
+        <v>0.423841059602649</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08239700374531835</v>
+        <v>0.07739938080495357</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02247191011235955</v>
+        <v>0.02476780185758514</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08239700374531835</v>
+        <v>0.0804953560371517</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07116104868913857</v>
+        <v>0.07739938080495357</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01123595505617977</v>
+        <v>0.01238390092879257</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1647940074906367</v>
+        <v>0.1609907120743034</v>
       </c>
       <c r="R8">
-        <v>0.1048689138576779</v>
+        <v>0.09597523219814241</v>
       </c>
       <c r="S8">
-        <v>0.4606741573033708</v>
+        <v>0.4705882352941176</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04958677685950413</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01652892561983471</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0743801652892562</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1074380165289256</v>
+        <v>0.1027397260273973</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03305785123966942</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1900826446280992</v>
+        <v>0.2191780821917808</v>
       </c>
       <c r="R9">
-        <v>0.08264462809917356</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="S9">
-        <v>0.4462809917355372</v>
+        <v>0.4520547945205479</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09237875288683603</v>
+        <v>0.1009523809523809</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01270207852193995</v>
+        <v>0.01238095238095238</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08545034642032333</v>
+        <v>0.08190476190476191</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08198614318706697</v>
+        <v>0.08190476190476191</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009237875288683603</v>
+        <v>0.008571428571428572</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2136258660508083</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="R10">
-        <v>0.09353348729792148</v>
+        <v>0.08761904761904762</v>
       </c>
       <c r="S10">
-        <v>0.4110854503464203</v>
+        <v>0.4123809523809524</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1232227488151659</v>
+        <v>0.1312741312741313</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1042654028436019</v>
+        <v>0.1042471042471042</v>
       </c>
       <c r="K11">
-        <v>0.1753554502369668</v>
+        <v>0.1930501930501931</v>
       </c>
       <c r="L11">
-        <v>0.5639810426540285</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03317535545023697</v>
+        <v>0.03088803088803089</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2333333333333333</v>
+        <v>0.2411347517730496</v>
       </c>
       <c r="K12">
-        <v>0.03333333333333333</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="L12">
-        <v>0.008333333333333333</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.025</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08333333333333333</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01333333333333333</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.12</v>
+        <v>0.1277777777777778</v>
       </c>
       <c r="I15">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="J15">
-        <v>0.4</v>
+        <v>0.4055555555555556</v>
       </c>
       <c r="K15">
-        <v>0.07333333333333333</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06666666666666667</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1866666666666667</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02777777777777778</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1851851851851852</v>
+        <v>0.1968503937007874</v>
       </c>
       <c r="I16">
-        <v>0.07407407407407407</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="J16">
-        <v>0.4351851851851852</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="K16">
-        <v>0.1111111111111111</v>
+        <v>0.1023622047244094</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03703703703703703</v>
+        <v>0.03937007874015748</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1296296296296296</v>
+        <v>0.1338582677165354</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02280130293159609</v>
+        <v>0.02393617021276596</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1693811074918567</v>
+        <v>0.1648936170212766</v>
       </c>
       <c r="I17">
-        <v>0.06840390879478828</v>
+        <v>0.06648936170212766</v>
       </c>
       <c r="J17">
-        <v>0.4136807817589577</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="K17">
-        <v>0.1172638436482085</v>
+        <v>0.1143617021276596</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01302931596091205</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="N17">
-        <v>0.003257328990228013</v>
+        <v>0.002659574468085106</v>
       </c>
       <c r="O17">
-        <v>0.05537459283387622</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1368078175895766</v>
+        <v>0.1329787234042553</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02112676056338028</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1197183098591549</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I18">
-        <v>0.05633802816901409</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="J18">
-        <v>0.4647887323943662</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="K18">
-        <v>0.09154929577464789</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0352112676056338</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05633802816901409</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1549295774647887</v>
+        <v>0.1358024691358025</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02118171683389075</v>
+        <v>0.01933701657458563</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1806020066889632</v>
+        <v>0.1813996316758748</v>
       </c>
       <c r="I19">
-        <v>0.07469342251950947</v>
+        <v>0.07734806629834254</v>
       </c>
       <c r="J19">
-        <v>0.399108138238573</v>
+        <v>0.3959484346224678</v>
       </c>
       <c r="K19">
-        <v>0.1081382385730212</v>
+        <v>0.1086556169429098</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01337792642140468</v>
+        <v>0.0147329650092081</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07803790412486064</v>
+        <v>0.07642725598526703</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.124860646599777</v>
+        <v>0.1261510128913444</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Marist_A.xlsx
+++ b/team_specific_matrix/Marist_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2259615384615385</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C2">
-        <v>0.4903846153846154</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02884615384615385</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1778846153846154</v>
+        <v>0.1752136752136752</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07692307692307693</v>
+        <v>0.0811965811965812</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02830188679245283</v>
+        <v>0.03305785123966942</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04716981132075472</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6981132075471698</v>
+        <v>0.71900826446281</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2264150943396226</v>
+        <v>0.2066115702479339</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03846153846153846</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6923076923076923</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2692307692307692</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02985074626865672</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004975124378109453</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05472636815920398</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2537313432835821</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1741293532338309</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R6">
-        <v>0.0945273631840796</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="S6">
-        <v>0.3880597014925373</v>
+        <v>0.3796296296296297</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1059602649006623</v>
+        <v>0.1183431952662722</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006622516556291391</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05298013245033113</v>
+        <v>0.05325443786982249</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09933774834437085</v>
+        <v>0.1005917159763314</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02649006622516556</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2119205298013245</v>
+        <v>0.1952662721893491</v>
       </c>
       <c r="R7">
-        <v>0.0728476821192053</v>
+        <v>0.07100591715976332</v>
       </c>
       <c r="S7">
-        <v>0.423841059602649</v>
+        <v>0.4319526627218935</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07739938080495357</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02476780185758514</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0804953560371517</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07739938080495357</v>
+        <v>0.07309941520467836</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01238390092879257</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1609907120743034</v>
+        <v>0.1549707602339181</v>
       </c>
       <c r="R8">
-        <v>0.09597523219814241</v>
+        <v>0.0935672514619883</v>
       </c>
       <c r="S8">
-        <v>0.4705882352941176</v>
+        <v>0.47953216374269</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0410958904109589</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0136986301369863</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0684931506849315</v>
+        <v>0.06289308176100629</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1027397260273973</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0273972602739726</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2191780821917808</v>
+        <v>0.220125786163522</v>
       </c>
       <c r="R9">
-        <v>0.07534246575342465</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="S9">
-        <v>0.4520547945205479</v>
+        <v>0.4654088050314465</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1009523809523809</v>
+        <v>0.1023622047244094</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01238095238095238</v>
+        <v>0.01224846894138233</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08190476190476191</v>
+        <v>0.0804899387576553</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08190476190476191</v>
+        <v>0.08661417322834646</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.008571428571428572</v>
+        <v>0.008748906386701663</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2142857142857143</v>
+        <v>0.2108486439195101</v>
       </c>
       <c r="R10">
-        <v>0.08761904761904762</v>
+        <v>0.08748906386701662</v>
       </c>
       <c r="S10">
-        <v>0.4123809523809524</v>
+        <v>0.4111986001749781</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1312741312741313</v>
+        <v>0.1262798634812287</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1042471042471042</v>
+        <v>0.1160409556313993</v>
       </c>
       <c r="K11">
-        <v>0.1930501930501931</v>
+        <v>0.1979522184300341</v>
       </c>
       <c r="L11">
-        <v>0.5405405405405406</v>
+        <v>0.5324232081911263</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03088803088803089</v>
+        <v>0.0273037542662116</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7021276595744681</v>
+        <v>0.6918238993710691</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2411347517730496</v>
+        <v>0.2515723270440252</v>
       </c>
       <c r="K12">
-        <v>0.02836879432624113</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="L12">
-        <v>0.007092198581560284</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02127659574468085</v>
+        <v>0.01886792452830189</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6551724137931034</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2758620689655172</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06896551724137931</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01111111111111111</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1277777777777778</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="I15">
-        <v>0.1</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="J15">
-        <v>0.4055555555555556</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="K15">
-        <v>0.08888888888888889</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01666666666666667</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07222222222222222</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1777777777777778</v>
+        <v>0.173469387755102</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02362204724409449</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1968503937007874</v>
+        <v>0.1986301369863014</v>
       </c>
       <c r="I16">
-        <v>0.07874015748031496</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="J16">
-        <v>0.4251968503937008</v>
+        <v>0.4041095890410959</v>
       </c>
       <c r="K16">
-        <v>0.1023622047244094</v>
+        <v>0.1164383561643836</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="O16">
-        <v>0.03937007874015748</v>
+        <v>0.04794520547945205</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1338582677165354</v>
+        <v>0.1301369863013699</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02393617021276596</v>
+        <v>0.02261306532663317</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1648936170212766</v>
+        <v>0.1633165829145729</v>
       </c>
       <c r="I17">
-        <v>0.06648936170212766</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="J17">
-        <v>0.425531914893617</v>
+        <v>0.4321608040201005</v>
       </c>
       <c r="K17">
-        <v>0.1143617021276596</v>
+        <v>0.1130653266331658</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01063829787234043</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="N17">
-        <v>0.002659574468085106</v>
+        <v>0.002512562814070352</v>
       </c>
       <c r="O17">
-        <v>0.05851063829787234</v>
+        <v>0.05778894472361809</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1329787234042553</v>
+        <v>0.1331658291457286</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02469135802469136</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1111111111111111</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="I18">
-        <v>0.06172839506172839</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="J18">
-        <v>0.4814814814814815</v>
+        <v>0.4770114942528735</v>
       </c>
       <c r="K18">
-        <v>0.09259259259259259</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03703703703703703</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05555555555555555</v>
+        <v>0.06321839080459771</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1358024691358025</v>
+        <v>0.1264367816091954</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01933701657458563</v>
+        <v>0.02201524132091448</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1813996316758748</v>
+        <v>0.1761219305673158</v>
       </c>
       <c r="I19">
-        <v>0.07734806629834254</v>
+        <v>0.07620660457239628</v>
       </c>
       <c r="J19">
-        <v>0.3959484346224678</v>
+        <v>0.3895004233700254</v>
       </c>
       <c r="K19">
-        <v>0.1086556169429098</v>
+        <v>0.11346316680779</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0147329650092081</v>
+        <v>0.01608806096528366</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07642725598526703</v>
+        <v>0.07705334462320068</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1261510128913444</v>
+        <v>0.1295512277730737</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Marist_A.xlsx
+++ b/team_specific_matrix/Marist_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2222222222222222</v>
+        <v>0.2269230769230769</v>
       </c>
       <c r="C2">
-        <v>0.4957264957264957</v>
+        <v>0.4884615384615384</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1752136752136752</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0811965811965812</v>
+        <v>0.08461538461538462</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03305785123966942</v>
+        <v>0.03007518796992481</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04132231404958678</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.71900826446281</v>
+        <v>0.7218045112781954</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2066115702479339</v>
+        <v>0.1954887218045113</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7142857142857143</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04166666666666666</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004629629629629629</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05092592592592592</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2638888888888889</v>
+        <v>0.2754237288135593</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1666666666666667</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="R6">
-        <v>0.09259259259259259</v>
+        <v>0.08898305084745763</v>
       </c>
       <c r="S6">
-        <v>0.3796296296296297</v>
+        <v>0.3601694915254237</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1183431952662722</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005917159763313609</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05325443786982249</v>
+        <v>0.05056179775280899</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1005917159763314</v>
+        <v>0.09550561797752809</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02366863905325444</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1952662721893491</v>
+        <v>0.1910112359550562</v>
       </c>
       <c r="R7">
-        <v>0.07100591715976332</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="S7">
-        <v>0.4319526627218935</v>
+        <v>0.449438202247191</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08187134502923976</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02631578947368421</v>
+        <v>0.02393617021276596</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07894736842105263</v>
+        <v>0.07712765957446809</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07309941520467836</v>
+        <v>0.07712765957446809</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01169590643274854</v>
+        <v>0.01329787234042553</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1549707602339181</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="R8">
-        <v>0.0935672514619883</v>
+        <v>0.09308510638297872</v>
       </c>
       <c r="S8">
-        <v>0.47953216374269</v>
+        <v>0.4654255319148936</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03773584905660377</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01257861635220126</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06289308176100629</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1006289308176101</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02515723270440252</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.220125786163522</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="R9">
-        <v>0.07547169811320754</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="S9">
-        <v>0.4654088050314465</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1023622047244094</v>
+        <v>0.1017087062652563</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01224846894138233</v>
+        <v>0.01301871440195281</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0804899387576553</v>
+        <v>0.07973962571196094</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08661417322834646</v>
+        <v>0.08624898291293735</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.008748906386701663</v>
+        <v>0.01057770545158665</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2108486439195101</v>
+        <v>0.2050447518307567</v>
       </c>
       <c r="R10">
-        <v>0.08748906386701662</v>
+        <v>0.0870626525630594</v>
       </c>
       <c r="S10">
-        <v>0.4111986001749781</v>
+        <v>0.4165988608624898</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1262798634812287</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1160409556313993</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="K11">
-        <v>0.1979522184300341</v>
+        <v>0.1974110032362459</v>
       </c>
       <c r="L11">
-        <v>0.5324232081911263</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0273037542662116</v>
+        <v>0.02588996763754045</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6918238993710691</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2515723270440252</v>
+        <v>0.244047619047619</v>
       </c>
       <c r="K12">
-        <v>0.03144654088050314</v>
+        <v>0.02976190476190476</v>
       </c>
       <c r="L12">
-        <v>0.006289308176100629</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01886792452830189</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2727272727272727</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06060606060606061</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01530612244897959</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1224489795918367</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="I15">
-        <v>0.1071428571428571</v>
+        <v>0.1055045871559633</v>
       </c>
       <c r="J15">
-        <v>0.4081632653061225</v>
+        <v>0.4082568807339449</v>
       </c>
       <c r="K15">
-        <v>0.08673469387755102</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01530612244897959</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07142857142857142</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.173469387755102</v>
+        <v>0.1880733944954129</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02054794520547945</v>
+        <v>0.03125</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1986301369863014</v>
+        <v>0.20625</v>
       </c>
       <c r="I16">
-        <v>0.07534246575342465</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="J16">
-        <v>0.4041095890410959</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
-        <v>0.1164383561643836</v>
+        <v>0.10625</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.00625</v>
       </c>
       <c r="N16">
-        <v>0.00684931506849315</v>
+        <v>0.00625</v>
       </c>
       <c r="O16">
-        <v>0.04794520547945205</v>
+        <v>0.05</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1301369863013699</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02261306532663317</v>
+        <v>0.02364066193853428</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1633165829145729</v>
+        <v>0.1773049645390071</v>
       </c>
       <c r="I17">
-        <v>0.06532663316582915</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="J17">
-        <v>0.4321608040201005</v>
+        <v>0.4231678486997636</v>
       </c>
       <c r="K17">
-        <v>0.1130653266331658</v>
+        <v>0.1087470449172577</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01005025125628141</v>
+        <v>0.01182033096926714</v>
       </c>
       <c r="N17">
-        <v>0.002512562814070352</v>
+        <v>0.002364066193853428</v>
       </c>
       <c r="O17">
-        <v>0.05778894472361809</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1331658291457286</v>
+        <v>0.1252955082742317</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02298850574712644</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.103448275862069</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="I18">
-        <v>0.06896551724137931</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="J18">
-        <v>0.4770114942528735</v>
+        <v>0.4787234042553192</v>
       </c>
       <c r="K18">
-        <v>0.09770114942528736</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04022988505747126</v>
+        <v>0.03723404255319149</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06321839080459771</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1264367816091954</v>
+        <v>0.1170212765957447</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02201524132091448</v>
+        <v>0.02285263987391647</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1761219305673158</v>
+        <v>0.1773049645390071</v>
       </c>
       <c r="I19">
-        <v>0.07620660457239628</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="J19">
-        <v>0.3895004233700254</v>
+        <v>0.3877068557919622</v>
       </c>
       <c r="K19">
-        <v>0.11346316680779</v>
+        <v>0.1150512214342002</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01608806096528366</v>
+        <v>0.01654846335697399</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07705334462320068</v>
+        <v>0.0764381402679275</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1295512277730737</v>
+        <v>0.1260835303388495</v>
       </c>
     </row>
   </sheetData>
